--- a/March_score.xlsx
+++ b/March_score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="449">
   <si>
     <t>ID</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>2022-03-25</t>
+  </si>
+  <si>
+    <t>2022-03-26</t>
   </si>
   <si>
     <t>2022-03-27</t>
@@ -1715,13 +1718,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG207"/>
+  <dimension ref="A1:AH207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1821,16 +1824,19 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1911,27 +1917,30 @@
         <v>0</v>
       </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>0.5572610750879003</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <v>0.457332411178565</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>0.6804379830695619</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D3">
         <v>0.7052093359026298</v>
@@ -2009,30 +2018,33 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.7525631943813762</v>
       </c>
       <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
         <v>0.8231667322576414</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.6722178613189327</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.6109824507526129</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D4">
         <v>0.6604281412999244</v>
@@ -2110,30 +2122,33 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.6409115472803137</v>
       </c>
       <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <v>0.5808254245754245</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>0.6305249003196218</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>0.7506496019460416</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D5">
         <v>0.9719199123172633</v>
@@ -2211,30 +2226,33 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.6606840871546753</v>
       </c>
       <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>0.4939852030346957</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>0.9566924303766409</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>0.8368407169334573</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D6">
         <v>0.7125986142004449</v>
@@ -2312,30 +2330,33 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.8715188320451478</v>
       </c>
       <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>0.6674493269888008</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>0.6109761402094231</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>0.8158131936107834</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D7">
         <v>0.6825672239206074</v>
@@ -2413,30 +2434,33 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>0.5269977804006841</v>
       </c>
       <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>1.411238161861899</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>0.7285001333770045</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>0.728210933803039</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D8">
         <v>0.759164154075273</v>
@@ -2514,30 +2538,33 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.7982956563288972</v>
       </c>
       <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
         <v>0.3542449286250939</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>0.6717463341611948</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>0.7145704767247767</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2615,30 +2642,33 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.8493969373734769</v>
       </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
         <v>0.6226588768976619</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>0.7244094274816918</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>0.891792562764175</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D10">
         <v>0.6890126660997803</v>
@@ -2716,30 +2746,33 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.6049098419765941</v>
       </c>
       <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>3.396481685955369</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>0.8591920422381532</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>0.8557690280968741</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D11">
         <v>1.111102003142796</v>
@@ -2817,30 +2850,33 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.5359245131972404</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
         <v>0.9980467435617726</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>0.942955071244545</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>0.9814380319038163</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D12">
         <v>0.5792720915448187</v>
@@ -2918,30 +2954,33 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>0.7705382947162445</v>
       </c>
       <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
         <v>0.7793729959155948</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>0.4830979297382459</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>0.7744064132132155</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D13">
         <v>0.302896838902124</v>
@@ -3019,30 +3058,33 @@
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>0.6246648429290916</v>
       </c>
       <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>1.381646423751687</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>1.004825697685982</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>0.8349545191650455</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3120,30 +3162,33 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>0.6194624376442558</v>
       </c>
       <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
         <v>3.427484795905849</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>0.7086748545572075</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
       <c r="AG14">
         <v>0</v>
       </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D15">
         <v>0.7118423716712311</v>
@@ -3221,30 +3266,33 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>0.6756282550705001</v>
       </c>
       <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
         <v>0.8865208428578737</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>0.9269834710743802</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>0.8105515342357449</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D16">
         <v>1.131839635841278</v>
@@ -3322,30 +3370,33 @@
         <v>0.4169926755708746</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>0.3638567493112947</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
         <v>0.2552652807942911</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>0.4980827481855865</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.2801110960574448</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:34">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D17">
         <v>0.4597458051590283</v>
@@ -3423,30 +3474,33 @@
         <v>0.8659188730924744</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>0.3936161241356047</v>
       </c>
       <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
         <v>0.8362146628706846</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.7055254461335096</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
       <c r="AG17">
         <v>0</v>
       </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C18" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D18">
         <v>0.3663905942542306</v>
@@ -3524,30 +3578,33 @@
         <v>0</v>
       </c>
       <c r="AC18">
+        <v>0.329934908213267</v>
+      </c>
+      <c r="AD18">
         <v>0.3556711710674739</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.1145760649087221</v>
       </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
       <c r="AF18">
         <v>0</v>
       </c>
       <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
         <v>0.2213592233009709</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3625,30 +3682,33 @@
         <v>0.4717931795971724</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>0.8421775292719776</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
         <v>0.7158948178760991</v>
       </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
       <c r="AG19">
         <v>0</v>
       </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3726,30 +3786,33 @@
         <v>0.4168218034844829</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>0.3835558381012926</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
         <v>0.9732882747236815</v>
       </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
       <c r="AG20">
         <v>0</v>
       </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C21" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3827,30 +3890,33 @@
         <v>0.713604577240941</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>0.5787341974529399</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
         <v>0.4506211491857426</v>
       </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
       <c r="AG21">
         <v>0</v>
       </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C22" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3928,30 +3994,33 @@
         <v>0.7650976450585683</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>0.8003266365573044</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
         <v>0.9783601565898217</v>
       </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
       <c r="AG22">
         <v>0</v>
       </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:34">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4029,30 +4098,33 @@
         <v>0.4779456869240151</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>0.9730387919376241</v>
       </c>
       <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
         <v>0.5830099819203687</v>
       </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
       <c r="AG23">
         <v>0</v>
       </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:34">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4130,7 +4202,7 @@
         <v>0.5504096293569978</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>0.3042475494906784</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -4144,16 +4216,19 @@
       <c r="AG24">
         <v>0</v>
       </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C25" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4231,30 +4306,33 @@
         <v>0.420194444117889</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>0.6312399730482182</v>
       </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>0.6730309313488795</v>
       </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
       <c r="AG25">
         <v>0</v>
       </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:34">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4332,30 +4410,33 @@
         <v>0.6881809848542719</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>0.7163660740340692</v>
       </c>
       <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>0.7284836773697609</v>
       </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
       <c r="AG26">
         <v>0</v>
       </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:34">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4433,30 +4514,33 @@
         <v>0.9187489091795313</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>0.907635619069376</v>
       </c>
       <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
         <v>1.128867511050032</v>
       </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
       <c r="AG27">
         <v>0</v>
       </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4534,30 +4618,33 @@
         <v>0.5305165264842684</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>0.7637936226452973</v>
       </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
         <v>0.6279904306220095</v>
       </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
       <c r="AG28">
         <v>0</v>
       </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:34">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D29">
         <v>0.9927435306079759</v>
@@ -4635,30 +4722,33 @@
         <v>0</v>
       </c>
       <c r="AC29">
+        <v>0.4782154882154883</v>
+      </c>
+      <c r="AD29">
         <v>0.8396383812516975</v>
       </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
       <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
         <v>1.10428362180768</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1.109081261099657</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1.077385175010943</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:34">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4736,30 +4826,33 @@
         <v>0.8346683151427052</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>0.6265182186234818</v>
       </c>
       <c r="AD30">
         <v>0</v>
       </c>
       <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
         <v>0.5793163951058689</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.8450555460181899</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.5910099768652399</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:34">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D31">
         <v>0.5292749088718141</v>
@@ -4837,30 +4930,33 @@
         <v>0</v>
       </c>
       <c r="AC31">
+        <v>0.2283439964291028</v>
+      </c>
+      <c r="AD31">
         <v>0.6153066747493992</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.5617218095995684</v>
       </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
       <c r="AF31">
         <v>0</v>
       </c>
       <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
         <v>0.5925447511133879</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:34">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C32" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D32">
         <v>0.7728469542970832</v>
@@ -4938,30 +5034,33 @@
         <v>0</v>
       </c>
       <c r="AC32">
+        <v>0.781567512314201</v>
+      </c>
+      <c r="AD32">
         <v>0.8626902318083915</v>
       </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
       <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
         <v>0.7660734953062156</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>0.5416851985296377</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C33" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5039,30 +5138,33 @@
         <v>0.9717189649641099</v>
       </c>
       <c r="AC33">
+        <v>0.8703686664212982</v>
+      </c>
+      <c r="AD33">
         <v>0.5489794299267984</v>
       </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
         <v>0.6900526670764449</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.3881725296699916</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C34" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5140,11 +5242,11 @@
         <v>0</v>
       </c>
       <c r="AC34">
+        <v>0.6084958013267232</v>
+      </c>
+      <c r="AD34">
         <v>0.1449766006173454</v>
       </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
       <c r="AE34">
         <v>0</v>
       </c>
@@ -5152,18 +5254,21 @@
         <v>0</v>
       </c>
       <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
         <v>0.8461388633044633</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:34">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C35" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D35">
         <v>0.5038924442604906</v>
@@ -5241,30 +5346,33 @@
         <v>0</v>
       </c>
       <c r="AC35">
+        <v>0.7713860345439293</v>
+      </c>
+      <c r="AD35">
         <v>0.9723822660369635</v>
       </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
         <v>0.4504425297462048</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.8308970729385955</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:34">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D36">
         <v>0.6334896906005528</v>
@@ -5342,30 +5450,33 @@
         <v>0</v>
       </c>
       <c r="AC36">
+        <v>0.816030902945437</v>
+      </c>
+      <c r="AD36">
         <v>0.5974641709908575</v>
       </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
       <c r="AE36">
         <v>0</v>
       </c>
       <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
         <v>0.5898216615919966</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>0.6274734033330158</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:34">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C37" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5443,30 +5554,33 @@
         <v>0.1042183622828784</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>0.1426573426573426</v>
       </c>
       <c r="AD37">
         <v>0</v>
       </c>
       <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
         <v>0.08861538461538461</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>0.3831640058055152</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C38" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5544,30 +5658,33 @@
         <v>0</v>
       </c>
       <c r="AC38">
+        <v>1.204259625715351</v>
+      </c>
+      <c r="AD38">
         <v>0.5010924289921156</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>1.15132611394126</v>
       </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
       <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
         <v>1.170918367346939</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.7874151150054766</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:34">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C39" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D39">
         <v>1.111394747758384</v>
@@ -5645,30 +5762,33 @@
         <v>0</v>
       </c>
       <c r="AC39">
+        <v>0.7560737090372189</v>
+      </c>
+      <c r="AD39">
         <v>0.7145615553088598</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>0.7799476065729937</v>
       </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
       <c r="AF39">
         <v>0</v>
       </c>
       <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
         <v>0.5648735463790934</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:34">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C40" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D40">
         <v>0.8523525441045007</v>
@@ -5746,30 +5866,33 @@
         <v>0.5352850488895232</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>0.2850180122907395</v>
       </c>
       <c r="AD40">
         <v>0</v>
       </c>
       <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
         <v>0.3428934228650137</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>0.9941632628953335</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:34">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C41" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D41">
         <v>0.797677788952768</v>
@@ -5847,30 +5970,33 @@
         <v>0</v>
       </c>
       <c r="AC41">
+        <v>0.7428209217682901</v>
+      </c>
+      <c r="AD41">
         <v>0.9168589924007882</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>0.9862798020692759</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>1.018946364640145</v>
       </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
       <c r="AG41">
         <v>0</v>
       </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C42" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5948,30 +6074,33 @@
         <v>1.027104233284822</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>0.9635204480939508</v>
       </c>
       <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
         <v>0.8685267733014246</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>1.145846112951376</v>
       </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
       <c r="AG42">
         <v>0</v>
       </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C43" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6049,30 +6178,33 @@
         <v>0.8452636714570618</v>
       </c>
       <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
         <v>0.9127983042696833</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>0.7648707567735908</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>0.3257605414093964</v>
       </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
       <c r="AG43">
         <v>0</v>
       </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:34">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C44" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6150,30 +6282,33 @@
         <v>0.3960526315789473</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>0.5899640287769784</v>
       </c>
       <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
         <v>0.0504094246581772</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>8.605284218195586e-05</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:34">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C45" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D45">
         <v>0.273019683888145</v>
@@ -6251,30 +6386,33 @@
         <v>1.331583682184025</v>
       </c>
       <c r="AC45">
+        <v>0.8529694407072843</v>
+      </c>
+      <c r="AD45">
         <v>0.7778552225430648</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>0.8162393162393162</v>
       </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
       <c r="AF45">
         <v>0</v>
       </c>
       <c r="AG45">
         <v>0</v>
       </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:34">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C46" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D46">
         <v>0.4972171014460142</v>
@@ -6352,30 +6490,33 @@
         <v>0.6750416625006123</v>
       </c>
       <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
         <v>0.6915976653794202</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>0.5695470537750078</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>0.6072893631136665</v>
       </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
       <c r="AG46">
         <v>0</v>
       </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:34">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C47" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D47">
         <v>0.6033116174900995</v>
@@ -6453,30 +6594,33 @@
         <v>1.331214240305149</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>0.6714632960622265</v>
       </c>
       <c r="AD47">
         <v>0</v>
       </c>
       <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
         <v>0.3799275105060229</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>0.4273312894002548</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>0.8250654879200903</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:34">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C48" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D48">
         <v>0.5043487603437775</v>
@@ -6554,30 +6698,33 @@
         <v>0.5591205331465072</v>
       </c>
       <c r="AC48">
+        <v>0.7249742403886116</v>
+      </c>
+      <c r="AD48">
         <v>0.4691466498922287</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>0.4656027056981961</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>0.4031681393148409</v>
       </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
       <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
         <v>0.3205426937951671</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:34">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C49" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D49">
         <v>0.8283389060627091</v>
@@ -6655,30 +6802,33 @@
         <v>0.488552036199095</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>0.4051762275157996</v>
       </c>
       <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
         <v>0.1974618436294016</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>0.7034132959040449</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>0.6784282881692003</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>0.5615107264962618</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:34">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C50" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D50">
         <v>0.6377275183202249</v>
@@ -6756,7 +6906,7 @@
         <v>0.4520155913344768</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>0.7303211303683336</v>
       </c>
       <c r="AD50">
         <v>0</v>
@@ -6765,21 +6915,24 @@
         <v>0</v>
       </c>
       <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
         <v>0.7981716655226033</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>0.7934820928148852</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:34">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C51" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D51">
         <v>0.3689491238862872</v>
@@ -6857,30 +7010,33 @@
         <v>0.5374577575534515</v>
       </c>
       <c r="AC51">
+        <v>0.3610196321160192</v>
+      </c>
+      <c r="AD51">
         <v>0.5230000375358637</v>
       </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
       <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
         <v>0.6324973759184286</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>0.4478798767689353</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>0.6737823579928843</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:34">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C52" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -6958,30 +7114,33 @@
         <v>0.2630925551541665</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>0.6784075290213616</v>
       </c>
       <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
         <v>0.8289315040676202</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>0.801356416205604</v>
       </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
       <c r="AG52">
         <v>0</v>
       </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:34">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C53" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7059,30 +7218,33 @@
         <v>0.7632510848148865</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>0.9037455717348355</v>
       </c>
       <c r="AD53">
         <v>0</v>
       </c>
       <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
         <v>0.3451100895390589</v>
       </c>
-      <c r="AF53">
+      <c r="AG53">
         <v>0.8504483631818098</v>
       </c>
-      <c r="AG53">
+      <c r="AH53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:34">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C54" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D54">
         <v>0.3333485533385082</v>
@@ -7160,30 +7322,33 @@
         <v>0</v>
       </c>
       <c r="AC54">
+        <v>0.6550270593225513</v>
+      </c>
+      <c r="AD54">
         <v>0.7626628240430298</v>
       </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
       <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
         <v>0.6490945142101785</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>0.7058755869602724</v>
       </c>
-      <c r="AG54">
+      <c r="AH54">
         <v>0.6016734973209202</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:34">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C55" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D55">
         <v>0.6841848481995362</v>
@@ -7261,30 +7426,33 @@
         <v>0.8280082784182228</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>0.6993006993006993</v>
       </c>
       <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
         <v>0.3921225832990539</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>0.6952777944210013</v>
       </c>
-      <c r="AF55">
+      <c r="AG55">
         <v>0.8679160699614679</v>
       </c>
-      <c r="AG55">
+      <c r="AH55">
         <v>0.8187812708396346</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:34">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C56" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7362,30 +7530,33 @@
         <v>0</v>
       </c>
       <c r="AC56">
+        <v>0.5884932126696834</v>
+      </c>
+      <c r="AD56">
         <v>0.559496983042123</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>0.3901903114186852</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>0.6690886309680822</v>
       </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
       <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
         <v>0.4085142857142857</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:34">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C57" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D57">
         <v>0.3389003367362093</v>
@@ -7463,30 +7634,33 @@
         <v>0</v>
       </c>
       <c r="AC57">
+        <v>0.5057738840708852</v>
+      </c>
+      <c r="AD57">
         <v>0.7403187905212195</v>
       </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
       <c r="AE57">
         <v>0</v>
       </c>
       <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
         <v>0.6850444540861725</v>
       </c>
-      <c r="AG57">
+      <c r="AH57">
         <v>0.09385351490614648</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:34">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C58" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7564,30 +7738,33 @@
         <v>0.7083816331233941</v>
       </c>
       <c r="AC58">
+        <v>0.8674175397046648</v>
+      </c>
+      <c r="AD58">
         <v>0.3927712970029228</v>
       </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
       <c r="AE58">
         <v>0</v>
       </c>
       <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
         <v>0.8483621641516379</v>
       </c>
-      <c r="AG58">
+      <c r="AH58">
         <v>0.8493245045635196</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:34">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C59" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7665,30 +7842,33 @@
         <v>0.6373806923324569</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>0.5225842590617114</v>
       </c>
       <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
         <v>0.5509034220467978</v>
       </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
       <c r="AF59">
         <v>0</v>
       </c>
       <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
         <v>0.2573604933213539</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:34">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C60" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D60">
         <v>0.6187840867266705</v>
@@ -7766,30 +7946,33 @@
         <v>0.7434412007319686</v>
       </c>
       <c r="AC60">
+        <v>0.7737121552911026</v>
+      </c>
+      <c r="AD60">
         <v>0.6753029443365735</v>
       </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
       <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
         <v>0.7095474330463212</v>
       </c>
-      <c r="AF60">
+      <c r="AG60">
         <v>0.8405053250042435</v>
       </c>
-      <c r="AG60">
+      <c r="AH60">
         <v>0.6945589638592168</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:34">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C61" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -7881,16 +8064,19 @@
       <c r="AG61">
         <v>0</v>
       </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:34">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C62" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -7968,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>0.3695618275378138</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -7982,16 +8168,19 @@
       <c r="AG62">
         <v>0</v>
       </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:34">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C63" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8069,333 +8258,345 @@
         <v>0.6561063737534326</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>0.4821760283060593</v>
       </c>
       <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
         <v>0.6907091843804236</v>
       </c>
-      <c r="AE63">
+      <c r="AF63">
         <v>0.6289365421446773</v>
       </c>
-      <c r="AF63">
+      <c r="AG63">
         <v>0.7326375983986889</v>
       </c>
-      <c r="AG63">
+      <c r="AH63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:34">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C64" t="s">
+        <v>447</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>303</v>
+      </c>
+      <c r="C65" t="s">
+        <v>447</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" t="s">
+        <v>304</v>
+      </c>
+      <c r="C66" t="s">
         <v>446</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-      <c r="AF64">
-        <v>0</v>
-      </c>
-      <c r="AG64">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
-      <c r="A65" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" t="s">
-        <v>302</v>
-      </c>
-      <c r="C65" t="s">
-        <v>446</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-      <c r="AF65">
-        <v>0</v>
-      </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33">
-      <c r="A66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" t="s">
-        <v>303</v>
-      </c>
-      <c r="C66" t="s">
-        <v>445</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-      <c r="AD66">
-        <v>0</v>
-      </c>
-      <c r="AE66">
-        <v>0</v>
-      </c>
-      <c r="AF66">
-        <v>0</v>
-      </c>
-      <c r="AG66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:34">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C67" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8473,30 +8674,33 @@
         <v>0.128</v>
       </c>
       <c r="AC67">
+        <v>0.1848290501528359</v>
+      </c>
+      <c r="AD67">
         <v>0.5290611028315946</v>
       </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
       <c r="AE67">
         <v>0</v>
       </c>
       <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
         <v>0.2180429864253394</v>
       </c>
-      <c r="AG67">
+      <c r="AH67">
         <v>0.3079167898315105</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:34">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C68" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -8586,18 +8790,21 @@
         <v>0</v>
       </c>
       <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
         <v>0.03896268184693232</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:34">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C69" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D69">
         <v>0.5518166044481834</v>
@@ -8675,30 +8882,33 @@
         <v>0.152338337653023</v>
       </c>
       <c r="AC69">
+        <v>0.4408094681245913</v>
+      </c>
+      <c r="AD69">
         <v>0.6336853429970839</v>
       </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
       <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
         <v>0.2105263157894737</v>
       </c>
-      <c r="AF69">
-        <v>0</v>
-      </c>
       <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
         <v>0.3482888527817924</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:34">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C70" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -8790,16 +9000,19 @@
       <c r="AG70">
         <v>0</v>
       </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:34">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C71" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D71">
         <v>0.1990905481973366</v>
@@ -8877,30 +9090,33 @@
         <v>0.3336542923433874</v>
       </c>
       <c r="AC71">
-        <v>0</v>
+        <v>0.144967830882353</v>
       </c>
       <c r="AD71">
         <v>0</v>
       </c>
       <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
         <v>0.6326333333333334</v>
       </c>
-      <c r="AF71">
+      <c r="AG71">
         <v>0.322132928026345</v>
       </c>
-      <c r="AG71">
+      <c r="AH71">
         <v>0.4356486704270749</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:34">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C72" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -8978,30 +9194,33 @@
         <v>0.1762597402597403</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>0.3939929307325845</v>
       </c>
       <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
         <v>0.1994730921992588</v>
       </c>
-      <c r="AE72">
+      <c r="AF72">
         <v>0.3995503792086431</v>
       </c>
-      <c r="AF72">
-        <v>0</v>
-      </c>
       <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
         <v>0.3919024390243901</v>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:34">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C73" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9079,30 +9298,33 @@
         <v>0</v>
       </c>
       <c r="AC73">
+        <v>1.220714848358724</v>
+      </c>
+      <c r="AD73">
         <v>1.145770595786453</v>
       </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
       <c r="AE73">
         <v>0</v>
       </c>
       <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
         <v>0.9772153747298322</v>
       </c>
-      <c r="AG73">
+      <c r="AH73">
         <v>0.9940721816882807</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:34">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C74" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D74">
         <v>0.7973227210545952</v>
@@ -9180,30 +9402,33 @@
         <v>0.779192525634107</v>
       </c>
       <c r="AC74">
-        <v>0</v>
+        <v>0.5126627033792239</v>
       </c>
       <c r="AD74">
         <v>0</v>
       </c>
       <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
         <v>0.4410259269584611</v>
       </c>
-      <c r="AF74">
+      <c r="AG74">
         <v>0.2401511212219694</v>
       </c>
-      <c r="AG74">
+      <c r="AH74">
         <v>0.8589299263786067</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:34">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C75" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D75">
         <v>0.8584839020035135</v>
@@ -9281,30 +9506,33 @@
         <v>0.5947463842200683</v>
       </c>
       <c r="AC75">
+        <v>2.340635420599279</v>
+      </c>
+      <c r="AD75">
         <v>0.9546265657515345</v>
       </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
       <c r="AE75">
         <v>0</v>
       </c>
       <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
         <v>1.022791244744278</v>
       </c>
-      <c r="AG75">
+      <c r="AH75">
         <v>0.7258604308787906</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:34">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C76" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -9394,18 +9622,21 @@
         <v>0</v>
       </c>
       <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
         <v>0.0002031928367751942</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:34">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C77" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -9483,30 +9714,33 @@
         <v>0.48146644457008</v>
       </c>
       <c r="AC77">
+        <v>1.074289119401902</v>
+      </c>
+      <c r="AD77">
         <v>1.680541234579001</v>
       </c>
-      <c r="AD77">
+      <c r="AE77">
         <v>0.6518409857708669</v>
       </c>
-      <c r="AE77">
-        <v>0</v>
-      </c>
       <c r="AF77">
         <v>0</v>
       </c>
       <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
         <v>1.019312857886517</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:34">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C78" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D78">
         <v>0.2792129193811251</v>
@@ -9584,30 +9818,33 @@
         <v>0</v>
       </c>
       <c r="AC78">
+        <v>0.3878089496196799</v>
+      </c>
+      <c r="AD78">
         <v>0.7063619723778357</v>
       </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
       <c r="AE78">
         <v>0</v>
       </c>
       <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
         <v>1.012955310270561</v>
       </c>
-      <c r="AG78">
+      <c r="AH78">
         <v>0.4916580616162635</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:34">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C79" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -9699,16 +9936,19 @@
       <c r="AG79">
         <v>0</v>
       </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:34">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C80" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -9800,16 +10040,19 @@
       <c r="AG80">
         <v>0</v>
       </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:34">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C81" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -9887,7 +10130,7 @@
         <v>0.6549930069930071</v>
       </c>
       <c r="AC81">
-        <v>0</v>
+        <v>0.7071852759214179</v>
       </c>
       <c r="AD81">
         <v>0</v>
@@ -9896,21 +10139,24 @@
         <v>0</v>
       </c>
       <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
         <v>1.048115942028985</v>
       </c>
-      <c r="AG81">
+      <c r="AH81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:34">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C82" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10002,117 +10248,123 @@
       <c r="AG82">
         <v>0</v>
       </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:34">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C83" t="s">
+        <v>446</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" t="s">
+        <v>322</v>
+      </c>
+      <c r="C84" t="s">
         <v>445</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83">
-        <v>0</v>
-      </c>
-      <c r="AE83">
-        <v>0</v>
-      </c>
-      <c r="AF83">
-        <v>0</v>
-      </c>
-      <c r="AG83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:33">
-      <c r="A84" t="s">
-        <v>115</v>
-      </c>
-      <c r="B84" t="s">
-        <v>321</v>
-      </c>
-      <c r="C84" t="s">
-        <v>444</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -10190,30 +10442,33 @@
         <v>0</v>
       </c>
       <c r="AC84">
+        <v>0.7172341436695504</v>
+      </c>
+      <c r="AD84">
         <v>0.678021946537547</v>
       </c>
-      <c r="AD84">
+      <c r="AE84">
         <v>0.6685405156443087</v>
       </c>
-      <c r="AE84">
-        <v>0</v>
-      </c>
       <c r="AF84">
         <v>0</v>
       </c>
       <c r="AG84">
         <v>0</v>
       </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:34">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C85" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -10305,117 +10560,123 @@
       <c r="AG85">
         <v>0</v>
       </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:34">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C86" t="s">
+        <v>446</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0.2960491659350307</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" t="s">
+        <v>325</v>
+      </c>
+      <c r="C87" t="s">
         <v>445</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <v>0</v>
-      </c>
-      <c r="Y86">
-        <v>0</v>
-      </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AD86">
-        <v>0</v>
-      </c>
-      <c r="AE86">
-        <v>0</v>
-      </c>
-      <c r="AF86">
-        <v>0</v>
-      </c>
-      <c r="AG86">
-        <v>0.2960491659350307</v>
-      </c>
-    </row>
-    <row r="87" spans="1:33">
-      <c r="A87" t="s">
-        <v>118</v>
-      </c>
-      <c r="B87" t="s">
-        <v>324</v>
-      </c>
-      <c r="C87" t="s">
-        <v>444</v>
       </c>
       <c r="D87">
         <v>0.534670008354219</v>
@@ -10493,30 +10754,33 @@
         <v>0.4609863820390136</v>
       </c>
       <c r="AC87">
+        <v>0.6423429891937226</v>
+      </c>
+      <c r="AD87">
         <v>0.5920988202647728</v>
       </c>
-      <c r="AD87">
-        <v>0</v>
-      </c>
       <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
         <v>0.3798755357196917</v>
       </c>
-      <c r="AF87">
+      <c r="AG87">
         <v>0.06593406593406594</v>
       </c>
-      <c r="AG87">
+      <c r="AH87">
         <v>0.45627585297656</v>
       </c>
     </row>
-    <row r="88" spans="1:33">
+    <row r="88" spans="1:34">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C88" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D88">
         <v>0.624509033778476</v>
@@ -10608,16 +10872,19 @@
       <c r="AG88">
         <v>0</v>
       </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" spans="1:34">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C89" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -10709,16 +10976,19 @@
       <c r="AG89">
         <v>0</v>
       </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:34">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D90">
         <v>0.5614043994022979</v>
@@ -10796,30 +11066,33 @@
         <v>0.2090394899218429</v>
       </c>
       <c r="AC90">
+        <v>0.4492720353230525</v>
+      </c>
+      <c r="AD90">
         <v>0.5887244093424683</v>
       </c>
-      <c r="AD90">
+      <c r="AE90">
         <v>0.3327784655535851</v>
       </c>
-      <c r="AE90">
+      <c r="AF90">
         <v>0.5790265476715645</v>
       </c>
-      <c r="AF90">
+      <c r="AG90">
         <v>0.342175882807937</v>
       </c>
-      <c r="AG90">
+      <c r="AH90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:33">
+    <row r="91" spans="1:34">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C91" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -10897,30 +11170,33 @@
         <v>0.7085768318117484</v>
       </c>
       <c r="AC91">
+        <v>0.4525301204819277</v>
+      </c>
+      <c r="AD91">
         <v>0.968390232968634</v>
       </c>
-      <c r="AD91">
-        <v>0</v>
-      </c>
       <c r="AE91">
         <v>0</v>
       </c>
       <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
         <v>0.6664029103522096</v>
       </c>
-      <c r="AG91">
+      <c r="AH91">
         <v>0.7084355577543724</v>
       </c>
     </row>
-    <row r="92" spans="1:33">
+    <row r="92" spans="1:34">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C92" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -11004,24 +11280,27 @@
         <v>0</v>
       </c>
       <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
         <v>0.5175878314712614</v>
       </c>
-      <c r="AF92">
+      <c r="AG92">
         <v>0.4905577007662569</v>
       </c>
-      <c r="AG92">
+      <c r="AH92">
         <v>0.7387418290938469</v>
       </c>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" spans="1:34">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B93" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C93" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -11099,30 +11378,33 @@
         <v>0.6566567403887977</v>
       </c>
       <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
         <v>0.5635777638254419</v>
       </c>
-      <c r="AD93">
-        <v>0</v>
-      </c>
       <c r="AE93">
         <v>0</v>
       </c>
       <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
         <v>0.7842687487858182</v>
       </c>
-      <c r="AG93">
+      <c r="AH93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33">
+    <row r="94" spans="1:34">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C94" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -11200,30 +11482,33 @@
         <v>0.7746566330075844</v>
       </c>
       <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
         <v>2.493045232279682</v>
       </c>
-      <c r="AD94">
-        <v>0</v>
-      </c>
       <c r="AE94">
         <v>0</v>
       </c>
       <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
         <v>0.7200757252683238</v>
       </c>
-      <c r="AG94">
+      <c r="AH94">
         <v>0.5097872964032995</v>
       </c>
     </row>
-    <row r="95" spans="1:33">
+    <row r="95" spans="1:34">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C95" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -11301,30 +11586,33 @@
         <v>0.7159100516042755</v>
       </c>
       <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
         <v>0.8399589383460002</v>
       </c>
-      <c r="AD95">
-        <v>0</v>
-      </c>
       <c r="AE95">
         <v>0</v>
       </c>
       <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
         <v>0.5929029919741994</v>
       </c>
-      <c r="AG95">
+      <c r="AH95">
         <v>0.3091433062614619</v>
       </c>
     </row>
-    <row r="96" spans="1:33">
+    <row r="96" spans="1:34">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C96" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -11402,30 +11690,33 @@
         <v>0.7517347959955717</v>
       </c>
       <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
         <v>0.5291392097448334</v>
       </c>
-      <c r="AD96">
-        <v>0</v>
-      </c>
       <c r="AE96">
         <v>0</v>
       </c>
       <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
         <v>0.6066394102511483</v>
       </c>
-      <c r="AG96">
+      <c r="AH96">
         <v>0.4239920765040382</v>
       </c>
     </row>
-    <row r="97" spans="1:33">
+    <row r="97" spans="1:34">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B97" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C97" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -11503,30 +11794,33 @@
         <v>0.7557616855137514</v>
       </c>
       <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
         <v>0.427061310782241</v>
       </c>
-      <c r="AD97">
-        <v>0</v>
-      </c>
       <c r="AE97">
         <v>0</v>
       </c>
       <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
         <v>0.9796829054401782</v>
       </c>
-      <c r="AG97">
+      <c r="AH97">
         <v>1.080030041259988</v>
       </c>
     </row>
-    <row r="98" spans="1:33">
+    <row r="98" spans="1:34">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B98" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C98" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -11604,30 +11898,33 @@
         <v>0.7148979675295464</v>
       </c>
       <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
         <v>0.8379332541097246</v>
       </c>
-      <c r="AD98">
-        <v>0</v>
-      </c>
       <c r="AE98">
         <v>0</v>
       </c>
       <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
         <v>0.7760450542572144</v>
       </c>
-      <c r="AG98">
+      <c r="AH98">
         <v>0.7560236651145742</v>
       </c>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:34">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -11705,30 +12002,33 @@
         <v>0.7875318873503991</v>
       </c>
       <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
         <v>0.9029482893938554</v>
       </c>
-      <c r="AD99">
-        <v>0</v>
-      </c>
       <c r="AE99">
         <v>0</v>
       </c>
       <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
         <v>0.6897143181510818</v>
       </c>
-      <c r="AG99">
+      <c r="AH99">
         <v>0.7090471361951844</v>
       </c>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:34">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C100" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -11806,30 +12106,33 @@
         <v>0.6444616602879392</v>
       </c>
       <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
         <v>0.5691815515862436</v>
       </c>
-      <c r="AD100">
-        <v>0</v>
-      </c>
       <c r="AE100">
         <v>0</v>
       </c>
       <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
         <v>0.5038791617738986</v>
       </c>
-      <c r="AG100">
+      <c r="AH100">
         <v>0.7083743996495675</v>
       </c>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:34">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B101" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -11916,21 +12219,24 @@
         <v>0</v>
       </c>
       <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
         <v>0.604059649737626</v>
       </c>
-      <c r="AG101">
+      <c r="AH101">
         <v>0.6911461305473861</v>
       </c>
     </row>
-    <row r="102" spans="1:33">
+    <row r="102" spans="1:34">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C102" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -12008,30 +12314,33 @@
         <v>0.7713516127488278</v>
       </c>
       <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
         <v>0.6492348717501577</v>
       </c>
-      <c r="AD102">
-        <v>0</v>
-      </c>
       <c r="AE102">
         <v>0</v>
       </c>
       <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
         <v>0.9834067167400502</v>
       </c>
-      <c r="AG102">
+      <c r="AH102">
         <v>0.5999098104361262</v>
       </c>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:34">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C103" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -12109,30 +12418,33 @@
         <v>0.7340239836359491</v>
       </c>
       <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
         <v>0.6221973430237302</v>
       </c>
-      <c r="AD103">
-        <v>0</v>
-      </c>
       <c r="AE103">
         <v>0</v>
       </c>
       <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
         <v>0.7111049216312375</v>
       </c>
-      <c r="AG103">
+      <c r="AH103">
         <v>0.7875448287748184</v>
       </c>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:34">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B104" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C104" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -12210,11 +12522,11 @@
         <v>0.843157080533818</v>
       </c>
       <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
         <v>0.7819699325941212</v>
       </c>
-      <c r="AD104">
-        <v>0</v>
-      </c>
       <c r="AE104">
         <v>0</v>
       </c>
@@ -12222,18 +12534,21 @@
         <v>0</v>
       </c>
       <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
         <v>0.7418614589225681</v>
       </c>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:34">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C105" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -12311,30 +12626,33 @@
         <v>0.7215599410779844</v>
       </c>
       <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
         <v>0.4515454739001684</v>
       </c>
-      <c r="AD105">
-        <v>0</v>
-      </c>
       <c r="AE105">
         <v>0</v>
       </c>
       <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
         <v>0.6980715105328106</v>
       </c>
-      <c r="AG105">
+      <c r="AH105">
         <v>0.6339780941498487</v>
       </c>
     </row>
-    <row r="106" spans="1:33">
+    <row r="106" spans="1:34">
       <c r="A106" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B106" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C106" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -12412,30 +12730,33 @@
         <v>0.9534043668941029</v>
       </c>
       <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AD106">
         <v>0.7786319420041736</v>
       </c>
-      <c r="AD106">
-        <v>0</v>
-      </c>
       <c r="AE106">
         <v>0</v>
       </c>
       <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
         <v>0.7665149555980068</v>
       </c>
-      <c r="AG106">
+      <c r="AH106">
         <v>0.43231813723617</v>
       </c>
     </row>
-    <row r="107" spans="1:33">
+    <row r="107" spans="1:34">
       <c r="A107" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B107" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C107" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -12513,11 +12834,11 @@
         <v>0.8396527072248636</v>
       </c>
       <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
         <v>2.716474078773946</v>
       </c>
-      <c r="AD107">
-        <v>0</v>
-      </c>
       <c r="AE107">
         <v>0</v>
       </c>
@@ -12525,18 +12846,21 @@
         <v>0</v>
       </c>
       <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
         <v>0.7419038678648378</v>
       </c>
     </row>
-    <row r="108" spans="1:33">
+    <row r="108" spans="1:34">
       <c r="A108" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B108" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C108" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -12614,30 +12938,33 @@
         <v>0.7181453737181289</v>
       </c>
       <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
         <v>2.181953563934204</v>
       </c>
-      <c r="AD108">
-        <v>0</v>
-      </c>
       <c r="AE108">
         <v>0</v>
       </c>
       <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
         <v>0.7824057637751163</v>
       </c>
-      <c r="AG108">
+      <c r="AH108">
         <v>0.7294761159892739</v>
       </c>
     </row>
-    <row r="109" spans="1:33">
+    <row r="109" spans="1:34">
       <c r="A109" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B109" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C109" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -12715,30 +13042,33 @@
         <v>0.8205898074521636</v>
       </c>
       <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
         <v>0.6976190339975451</v>
       </c>
-      <c r="AD109">
-        <v>0</v>
-      </c>
       <c r="AE109">
         <v>0</v>
       </c>
       <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
         <v>0.6675353445179364</v>
       </c>
-      <c r="AG109">
+      <c r="AH109">
         <v>0.7248282690760567</v>
       </c>
     </row>
-    <row r="110" spans="1:33">
+    <row r="110" spans="1:34">
       <c r="A110" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C110" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -12816,11 +13146,11 @@
         <v>0</v>
       </c>
       <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
         <v>0.7236197501896433</v>
       </c>
-      <c r="AD110">
-        <v>0</v>
-      </c>
       <c r="AE110">
         <v>0</v>
       </c>
@@ -12828,18 +13158,21 @@
         <v>0</v>
       </c>
       <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
         <v>0.4441923752594722</v>
       </c>
     </row>
-    <row r="111" spans="1:33">
+    <row r="111" spans="1:34">
       <c r="A111" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B111" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C111" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -12917,30 +13250,33 @@
         <v>0.712417616905534</v>
       </c>
       <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
         <v>3.065587920851079</v>
       </c>
-      <c r="AD111">
-        <v>0</v>
-      </c>
       <c r="AE111">
         <v>0</v>
       </c>
       <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
         <v>0.727127623402906</v>
       </c>
-      <c r="AG111">
+      <c r="AH111">
         <v>0.7403382602246238</v>
       </c>
     </row>
-    <row r="112" spans="1:33">
+    <row r="112" spans="1:34">
       <c r="A112" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B112" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C112" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -13032,16 +13368,19 @@
       <c r="AG112">
         <v>0</v>
       </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
     </row>
-    <row r="113" spans="1:33">
+    <row r="113" spans="1:34">
       <c r="A113" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B113" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C113" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -13133,16 +13472,19 @@
       <c r="AG113">
         <v>0</v>
       </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:33">
+    <row r="114" spans="1:34">
       <c r="A114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B114" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C114" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -13226,24 +13568,27 @@
         <v>0</v>
       </c>
       <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
         <v>0.9593984962406015</v>
       </c>
-      <c r="AF114">
-        <v>0</v>
-      </c>
       <c r="AG114">
         <v>0</v>
       </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
     </row>
-    <row r="115" spans="1:33">
+    <row r="115" spans="1:34">
       <c r="A115" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B115" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C115" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -13321,30 +13666,33 @@
         <v>0.5658392790213167</v>
       </c>
       <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
         <v>0.2417072342352542</v>
       </c>
-      <c r="AD115">
+      <c r="AE115">
         <v>0.6766369009543791</v>
       </c>
-      <c r="AE115">
-        <v>0</v>
-      </c>
       <c r="AF115">
         <v>0</v>
       </c>
       <c r="AG115">
         <v>0</v>
       </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
     </row>
-    <row r="116" spans="1:33">
+    <row r="116" spans="1:34">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B116" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C116" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -13422,30 +13770,33 @@
         <v>0.8542561004360665</v>
       </c>
       <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
         <v>0.4182945154019534</v>
       </c>
-      <c r="AD116">
+      <c r="AE116">
         <v>1.017679433623347</v>
       </c>
-      <c r="AE116">
-        <v>0</v>
-      </c>
       <c r="AF116">
         <v>0</v>
       </c>
       <c r="AG116">
         <v>0</v>
       </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
     </row>
-    <row r="117" spans="1:33">
+    <row r="117" spans="1:34">
       <c r="A117" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C117" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -13526,27 +13877,30 @@
         <v>0</v>
       </c>
       <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
         <v>0.7199988767436799</v>
       </c>
-      <c r="AE117">
-        <v>0</v>
-      </c>
       <c r="AF117">
         <v>0</v>
       </c>
       <c r="AG117">
         <v>0</v>
       </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
     </row>
-    <row r="118" spans="1:33">
+    <row r="118" spans="1:34">
       <c r="A118" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B118" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C118" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -13624,30 +13978,33 @@
         <v>0.7726786697916554</v>
       </c>
       <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
         <v>0.9193606393606393</v>
       </c>
-      <c r="AD118">
+      <c r="AE118">
         <v>0.898739578847938</v>
       </c>
-      <c r="AE118">
-        <v>0</v>
-      </c>
       <c r="AF118">
         <v>0</v>
       </c>
       <c r="AG118">
         <v>0</v>
       </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
     </row>
-    <row r="119" spans="1:33">
+    <row r="119" spans="1:34">
       <c r="A119" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B119" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C119" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -13725,30 +14082,33 @@
         <v>0.6960206922778307</v>
       </c>
       <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
         <v>0.8848255913285694</v>
       </c>
-      <c r="AD119">
+      <c r="AE119">
         <v>0.8053740703583065</v>
       </c>
-      <c r="AE119">
-        <v>0</v>
-      </c>
       <c r="AF119">
         <v>0</v>
       </c>
       <c r="AG119">
         <v>0</v>
       </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:33">
+    <row r="120" spans="1:34">
       <c r="A120" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B120" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C120" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -13826,30 +14186,33 @@
         <v>0.5135285629969943</v>
       </c>
       <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
         <v>0.7185801109395322</v>
       </c>
-      <c r="AD120">
+      <c r="AE120">
         <v>0.4168592998480217</v>
       </c>
-      <c r="AE120">
-        <v>0</v>
-      </c>
       <c r="AF120">
         <v>0</v>
       </c>
       <c r="AG120">
         <v>0</v>
       </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
     </row>
-    <row r="121" spans="1:33">
+    <row r="121" spans="1:34">
       <c r="A121" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B121" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C121" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -13927,30 +14290,33 @@
         <v>0.605859305824296</v>
       </c>
       <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
         <v>0.8070242172473705</v>
       </c>
-      <c r="AD121">
+      <c r="AE121">
         <v>0.7029868932294359</v>
       </c>
-      <c r="AE121">
-        <v>0</v>
-      </c>
       <c r="AF121">
         <v>0</v>
       </c>
       <c r="AG121">
         <v>0</v>
       </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
     </row>
-    <row r="122" spans="1:33">
+    <row r="122" spans="1:34">
       <c r="A122" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B122" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C122" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -14028,11 +14394,11 @@
         <v>0.4445963393331814</v>
       </c>
       <c r="AC122">
+        <v>0</v>
+      </c>
+      <c r="AD122">
         <v>0.5222751817985456</v>
       </c>
-      <c r="AD122">
-        <v>0</v>
-      </c>
       <c r="AE122">
         <v>0</v>
       </c>
@@ -14042,16 +14408,19 @@
       <c r="AG122">
         <v>0</v>
       </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:33">
+    <row r="123" spans="1:34">
       <c r="A123" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B123" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C123" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -14129,30 +14498,33 @@
         <v>0.2647331428130069</v>
       </c>
       <c r="AC123">
+        <v>0</v>
+      </c>
+      <c r="AD123">
         <v>0.8302231743283496</v>
       </c>
-      <c r="AD123">
+      <c r="AE123">
         <v>0.6768549405135511</v>
       </c>
-      <c r="AE123">
-        <v>0</v>
-      </c>
       <c r="AF123">
         <v>0</v>
       </c>
       <c r="AG123">
         <v>0</v>
       </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:33">
+    <row r="124" spans="1:34">
       <c r="A124" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B124" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C124" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -14230,30 +14602,33 @@
         <v>0.6443433018673937</v>
       </c>
       <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
         <v>0.7968390944722649</v>
       </c>
-      <c r="AD124">
+      <c r="AE124">
         <v>0.3432635018258697</v>
       </c>
-      <c r="AE124">
-        <v>0</v>
-      </c>
       <c r="AF124">
         <v>0</v>
       </c>
       <c r="AG124">
         <v>0</v>
       </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:33">
+    <row r="125" spans="1:34">
       <c r="A125" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B125" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C125" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -14331,30 +14706,33 @@
         <v>0.616066695255493</v>
       </c>
       <c r="AC125">
+        <v>0</v>
+      </c>
+      <c r="AD125">
         <v>0.5352930241525887</v>
       </c>
-      <c r="AD125">
+      <c r="AE125">
         <v>0.442586290714633</v>
       </c>
-      <c r="AE125">
-        <v>0</v>
-      </c>
       <c r="AF125">
         <v>0</v>
       </c>
       <c r="AG125">
         <v>0</v>
       </c>
+      <c r="AH125">
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:33">
+    <row r="126" spans="1:34">
       <c r="A126" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B126" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C126" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -14432,30 +14810,33 @@
         <v>0.810216145458895</v>
       </c>
       <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
         <v>0.6062001159621806</v>
       </c>
-      <c r="AD126">
+      <c r="AE126">
         <v>0.8833155080213905</v>
       </c>
-      <c r="AE126">
-        <v>0</v>
-      </c>
       <c r="AF126">
         <v>0</v>
       </c>
       <c r="AG126">
         <v>0</v>
       </c>
+      <c r="AH126">
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:33">
+    <row r="127" spans="1:34">
       <c r="A127" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B127" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C127" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -14533,11 +14914,11 @@
         <v>0.7569682341949548</v>
       </c>
       <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
         <v>0.7443704674908698</v>
       </c>
-      <c r="AD127">
-        <v>0</v>
-      </c>
       <c r="AE127">
         <v>0</v>
       </c>
@@ -14547,16 +14928,19 @@
       <c r="AG127">
         <v>0</v>
       </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:33">
+    <row r="128" spans="1:34">
       <c r="A128" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B128" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C128" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -14634,30 +15018,33 @@
         <v>0.7720725781121324</v>
       </c>
       <c r="AC128">
+        <v>0</v>
+      </c>
+      <c r="AD128">
         <v>0.796430183841778</v>
       </c>
-      <c r="AD128">
+      <c r="AE128">
         <v>0.6508675412611088</v>
       </c>
-      <c r="AE128">
-        <v>0</v>
-      </c>
       <c r="AF128">
         <v>0</v>
       </c>
       <c r="AG128">
         <v>0</v>
       </c>
+      <c r="AH128">
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:33">
+    <row r="129" spans="1:34">
       <c r="A129" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B129" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C129" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -14735,30 +15122,33 @@
         <v>0.8795947086968758</v>
       </c>
       <c r="AC129">
+        <v>0</v>
+      </c>
+      <c r="AD129">
         <v>0.4230662085616121</v>
       </c>
-      <c r="AD129">
+      <c r="AE129">
         <v>0.7973680583611583</v>
       </c>
-      <c r="AE129">
-        <v>0</v>
-      </c>
       <c r="AF129">
         <v>0</v>
       </c>
       <c r="AG129">
         <v>0</v>
       </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:33">
+    <row r="130" spans="1:34">
       <c r="A130" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B130" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C130" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -14836,30 +15226,33 @@
         <v>0.6742193976236529</v>
       </c>
       <c r="AC130">
+        <v>0</v>
+      </c>
+      <c r="AD130">
         <v>0.8333172315354371</v>
       </c>
-      <c r="AD130">
+      <c r="AE130">
         <v>0.84768798263407</v>
       </c>
-      <c r="AE130">
-        <v>0</v>
-      </c>
       <c r="AF130">
         <v>0</v>
       </c>
       <c r="AG130">
         <v>0</v>
       </c>
+      <c r="AH130">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:33">
+    <row r="131" spans="1:34">
       <c r="A131" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B131" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C131" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -14937,30 +15330,33 @@
         <v>0.5178937856510852</v>
       </c>
       <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
         <v>0.8268001877908997</v>
       </c>
-      <c r="AD131">
+      <c r="AE131">
         <v>0.7379679144385027</v>
       </c>
-      <c r="AE131">
-        <v>0</v>
-      </c>
       <c r="AF131">
         <v>0</v>
       </c>
       <c r="AG131">
         <v>0</v>
       </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:33">
+    <row r="132" spans="1:34">
       <c r="A132" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B132" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C132" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -15038,30 +15434,33 @@
         <v>0.6914011513082721</v>
       </c>
       <c r="AC132">
+        <v>0</v>
+      </c>
+      <c r="AD132">
         <v>0.4114563907265268</v>
       </c>
-      <c r="AD132">
+      <c r="AE132">
         <v>0.7752829385559492</v>
       </c>
-      <c r="AE132">
-        <v>0</v>
-      </c>
       <c r="AF132">
         <v>0</v>
       </c>
       <c r="AG132">
         <v>0</v>
       </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:33">
+    <row r="133" spans="1:34">
       <c r="A133" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B133" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C133" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -15139,30 +15538,33 @@
         <v>0.77920060217791</v>
       </c>
       <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
         <v>0.9179645881841211</v>
       </c>
-      <c r="AD133">
+      <c r="AE133">
         <v>0.6601696055996769</v>
       </c>
-      <c r="AE133">
-        <v>0</v>
-      </c>
       <c r="AF133">
         <v>0</v>
       </c>
       <c r="AG133">
         <v>0</v>
       </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:33">
+    <row r="134" spans="1:34">
       <c r="A134" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B134" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C134" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -15240,30 +15642,33 @@
         <v>0.8229376735319012</v>
       </c>
       <c r="AC134">
+        <v>0</v>
+      </c>
+      <c r="AD134">
         <v>0.8341796735757813</v>
       </c>
-      <c r="AD134">
+      <c r="AE134">
         <v>0.712847048164981</v>
       </c>
-      <c r="AE134">
-        <v>0</v>
-      </c>
       <c r="AF134">
         <v>0</v>
       </c>
       <c r="AG134">
         <v>0</v>
       </c>
+      <c r="AH134">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:33">
+    <row r="135" spans="1:34">
       <c r="A135" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B135" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C135" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -15344,27 +15749,30 @@
         <v>0</v>
       </c>
       <c r="AD135">
+        <v>0</v>
+      </c>
+      <c r="AE135">
         <v>0.5923011765368854</v>
       </c>
-      <c r="AE135">
-        <v>0</v>
-      </c>
       <c r="AF135">
         <v>0</v>
       </c>
       <c r="AG135">
         <v>0</v>
       </c>
+      <c r="AH135">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:33">
+    <row r="136" spans="1:34">
       <c r="A136" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B136" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C136" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -15442,30 +15850,33 @@
         <v>0</v>
       </c>
       <c r="AC136">
+        <v>0</v>
+      </c>
+      <c r="AD136">
         <v>0.60120536521004</v>
       </c>
-      <c r="AD136">
+      <c r="AE136">
         <v>0.7561672155447615</v>
       </c>
-      <c r="AE136">
-        <v>0</v>
-      </c>
       <c r="AF136">
         <v>0</v>
       </c>
       <c r="AG136">
         <v>0</v>
       </c>
+      <c r="AH136">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:33">
+    <row r="137" spans="1:34">
       <c r="A137" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B137" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C137" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -15543,30 +15954,33 @@
         <v>0</v>
       </c>
       <c r="AC137">
+        <v>0</v>
+      </c>
+      <c r="AD137">
         <v>0.7599044613712431</v>
       </c>
-      <c r="AD137">
+      <c r="AE137">
         <v>0.6446185393553815</v>
       </c>
-      <c r="AE137">
+      <c r="AF137">
         <v>0.5949677332313988</v>
       </c>
-      <c r="AF137">
-        <v>0</v>
-      </c>
       <c r="AG137">
         <v>0</v>
       </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:33">
+    <row r="138" spans="1:34">
       <c r="A138" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B138" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C138" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -15647,27 +16061,30 @@
         <v>0</v>
       </c>
       <c r="AD138">
+        <v>0</v>
+      </c>
+      <c r="AE138">
         <v>0.5996144797883438</v>
       </c>
-      <c r="AE138">
+      <c r="AF138">
         <v>0.6866107382550336</v>
       </c>
-      <c r="AF138">
+      <c r="AG138">
         <v>0.4605229490899498</v>
       </c>
-      <c r="AG138">
+      <c r="AH138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:33">
+    <row r="139" spans="1:34">
       <c r="A139" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B139" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C139" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -15748,27 +16165,30 @@
         <v>0</v>
       </c>
       <c r="AD139">
+        <v>0</v>
+      </c>
+      <c r="AE139">
         <v>0.4330679156908665</v>
       </c>
-      <c r="AE139">
-        <v>0</v>
-      </c>
       <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
         <v>0.2113284864507601</v>
       </c>
-      <c r="AG139">
+      <c r="AH139">
         <v>0.298660587061841</v>
       </c>
     </row>
-    <row r="140" spans="1:33">
+    <row r="140" spans="1:34">
       <c r="A140" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B140" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C140" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -15849,27 +16269,30 @@
         <v>0</v>
       </c>
       <c r="AD140">
+        <v>0</v>
+      </c>
+      <c r="AE140">
         <v>0.5219062708025121</v>
       </c>
-      <c r="AE140">
+      <c r="AF140">
         <v>0.7184517972240894</v>
       </c>
-      <c r="AF140">
+      <c r="AG140">
         <v>0.4232189128816083</v>
       </c>
-      <c r="AG140">
+      <c r="AH140">
         <v>0.4537487918893863</v>
       </c>
     </row>
-    <row r="141" spans="1:33">
+    <row r="141" spans="1:34">
       <c r="A141" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B141" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C141" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -15950,27 +16373,30 @@
         <v>0</v>
       </c>
       <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
         <v>0.2900138222187836</v>
       </c>
-      <c r="AE141">
+      <c r="AF141">
         <v>0.4531296271368959</v>
       </c>
-      <c r="AF141">
+      <c r="AG141">
         <v>0.4528624827857564</v>
       </c>
-      <c r="AG141">
+      <c r="AH141">
         <v>0.2589901477832512</v>
       </c>
     </row>
-    <row r="142" spans="1:33">
+    <row r="142" spans="1:34">
       <c r="A142" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B142" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C142" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -16054,24 +16480,27 @@
         <v>0</v>
       </c>
       <c r="AE142">
+        <v>0</v>
+      </c>
+      <c r="AF142">
         <v>0.2854025022378583</v>
       </c>
-      <c r="AF142">
+      <c r="AG142">
         <v>0.2955005879825583</v>
       </c>
-      <c r="AG142">
+      <c r="AH142">
         <v>0.2916393442622951</v>
       </c>
     </row>
-    <row r="143" spans="1:33">
+    <row r="143" spans="1:34">
       <c r="A143" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B143" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C143" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -16152,27 +16581,30 @@
         <v>0</v>
       </c>
       <c r="AD143">
+        <v>0</v>
+      </c>
+      <c r="AE143">
         <v>0.4260294659145059</v>
       </c>
-      <c r="AE143">
+      <c r="AF143">
         <v>1.082836134453782</v>
       </c>
-      <c r="AF143">
+      <c r="AG143">
         <v>0.3237104742443273</v>
       </c>
-      <c r="AG143">
+      <c r="AH143">
         <v>0.3956032632030915</v>
       </c>
     </row>
-    <row r="144" spans="1:33">
+    <row r="144" spans="1:34">
       <c r="A144" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B144" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C144" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -16264,16 +16696,19 @@
       <c r="AG144">
         <v>0</v>
       </c>
+      <c r="AH144">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:33">
+    <row r="145" spans="1:34">
       <c r="A145" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B145" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C145" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -16365,16 +16800,19 @@
       <c r="AG145">
         <v>0</v>
       </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:33">
+    <row r="146" spans="1:34">
       <c r="A146" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B146" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C146" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -16455,431 +16893,446 @@
         <v>0</v>
       </c>
       <c r="AD146">
+        <v>0</v>
+      </c>
+      <c r="AE146">
         <v>0.574065934065934</v>
       </c>
-      <c r="AE146">
+      <c r="AF146">
         <v>1.104400345125108</v>
       </c>
-      <c r="AF146">
+      <c r="AG146">
         <v>0.609126110827564</v>
       </c>
-      <c r="AG146">
+      <c r="AH146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:33">
+    <row r="147" spans="1:34">
       <c r="A147" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B147" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C147" t="s">
+        <v>447</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+      <c r="AC147">
+        <v>0</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>0</v>
+      </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>0</v>
+      </c>
+      <c r="AH147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:34">
+      <c r="A148" t="s">
+        <v>180</v>
+      </c>
+      <c r="B148" t="s">
+        <v>386</v>
+      </c>
+      <c r="C148" t="s">
+        <v>445</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+      <c r="AC148">
+        <v>0</v>
+      </c>
+      <c r="AD148">
+        <v>0</v>
+      </c>
+      <c r="AE148">
+        <v>0</v>
+      </c>
+      <c r="AF148">
+        <v>0</v>
+      </c>
+      <c r="AG148">
+        <v>0</v>
+      </c>
+      <c r="AH148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:34">
+      <c r="A149" t="s">
+        <v>181</v>
+      </c>
+      <c r="B149" t="s">
+        <v>387</v>
+      </c>
+      <c r="C149" t="s">
+        <v>447</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>0</v>
+      </c>
+      <c r="AC149">
+        <v>0</v>
+      </c>
+      <c r="AD149">
+        <v>0</v>
+      </c>
+      <c r="AE149">
+        <v>0</v>
+      </c>
+      <c r="AF149">
+        <v>0</v>
+      </c>
+      <c r="AG149">
+        <v>0</v>
+      </c>
+      <c r="AH149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:34">
+      <c r="A150" t="s">
+        <v>182</v>
+      </c>
+      <c r="B150" t="s">
+        <v>388</v>
+      </c>
+      <c r="C150" t="s">
         <v>446</v>
       </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-      <c r="M147">
-        <v>0</v>
-      </c>
-      <c r="N147">
-        <v>0</v>
-      </c>
-      <c r="O147">
-        <v>0</v>
-      </c>
-      <c r="P147">
-        <v>0</v>
-      </c>
-      <c r="Q147">
-        <v>0</v>
-      </c>
-      <c r="R147">
-        <v>0</v>
-      </c>
-      <c r="S147">
-        <v>0</v>
-      </c>
-      <c r="T147">
-        <v>0</v>
-      </c>
-      <c r="U147">
-        <v>0</v>
-      </c>
-      <c r="V147">
-        <v>0</v>
-      </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-      <c r="X147">
-        <v>0</v>
-      </c>
-      <c r="Y147">
-        <v>0</v>
-      </c>
-      <c r="Z147">
-        <v>0</v>
-      </c>
-      <c r="AA147">
-        <v>0</v>
-      </c>
-      <c r="AB147">
-        <v>0</v>
-      </c>
-      <c r="AC147">
-        <v>0</v>
-      </c>
-      <c r="AD147">
-        <v>0</v>
-      </c>
-      <c r="AE147">
-        <v>0</v>
-      </c>
-      <c r="AF147">
-        <v>0</v>
-      </c>
-      <c r="AG147">
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>0</v>
+      </c>
+      <c r="AH150">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:33">
-      <c r="A148" t="s">
-        <v>179</v>
-      </c>
-      <c r="B148" t="s">
-        <v>385</v>
-      </c>
-      <c r="C148" t="s">
-        <v>444</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-      <c r="M148">
-        <v>0</v>
-      </c>
-      <c r="N148">
-        <v>0</v>
-      </c>
-      <c r="O148">
-        <v>0</v>
-      </c>
-      <c r="P148">
-        <v>0</v>
-      </c>
-      <c r="Q148">
-        <v>0</v>
-      </c>
-      <c r="R148">
-        <v>0</v>
-      </c>
-      <c r="S148">
-        <v>0</v>
-      </c>
-      <c r="T148">
-        <v>0</v>
-      </c>
-      <c r="U148">
-        <v>0</v>
-      </c>
-      <c r="V148">
-        <v>0</v>
-      </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-      <c r="X148">
-        <v>0</v>
-      </c>
-      <c r="Y148">
-        <v>0</v>
-      </c>
-      <c r="Z148">
-        <v>0</v>
-      </c>
-      <c r="AA148">
-        <v>0</v>
-      </c>
-      <c r="AB148">
-        <v>0</v>
-      </c>
-      <c r="AC148">
-        <v>0</v>
-      </c>
-      <c r="AD148">
-        <v>0</v>
-      </c>
-      <c r="AE148">
-        <v>0</v>
-      </c>
-      <c r="AF148">
-        <v>0</v>
-      </c>
-      <c r="AG148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:33">
-      <c r="A149" t="s">
-        <v>180</v>
-      </c>
-      <c r="B149" t="s">
-        <v>386</v>
-      </c>
-      <c r="C149" t="s">
-        <v>446</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149">
-        <v>0</v>
-      </c>
-      <c r="N149">
-        <v>0</v>
-      </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-      <c r="P149">
-        <v>0</v>
-      </c>
-      <c r="Q149">
-        <v>0</v>
-      </c>
-      <c r="R149">
-        <v>0</v>
-      </c>
-      <c r="S149">
-        <v>0</v>
-      </c>
-      <c r="T149">
-        <v>0</v>
-      </c>
-      <c r="U149">
-        <v>0</v>
-      </c>
-      <c r="V149">
-        <v>0</v>
-      </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
-        <v>0</v>
-      </c>
-      <c r="Y149">
-        <v>0</v>
-      </c>
-      <c r="Z149">
-        <v>0</v>
-      </c>
-      <c r="AA149">
-        <v>0</v>
-      </c>
-      <c r="AB149">
-        <v>0</v>
-      </c>
-      <c r="AC149">
-        <v>0</v>
-      </c>
-      <c r="AD149">
-        <v>0</v>
-      </c>
-      <c r="AE149">
-        <v>0</v>
-      </c>
-      <c r="AF149">
-        <v>0</v>
-      </c>
-      <c r="AG149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:33">
-      <c r="A150" t="s">
-        <v>181</v>
-      </c>
-      <c r="B150" t="s">
-        <v>387</v>
-      </c>
-      <c r="C150" t="s">
-        <v>445</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-      <c r="N150">
-        <v>0</v>
-      </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-      <c r="Q150">
-        <v>0</v>
-      </c>
-      <c r="R150">
-        <v>0</v>
-      </c>
-      <c r="S150">
-        <v>0</v>
-      </c>
-      <c r="T150">
-        <v>0</v>
-      </c>
-      <c r="U150">
-        <v>0</v>
-      </c>
-      <c r="V150">
-        <v>0</v>
-      </c>
-      <c r="W150">
-        <v>0</v>
-      </c>
-      <c r="X150">
-        <v>0</v>
-      </c>
-      <c r="Y150">
-        <v>0</v>
-      </c>
-      <c r="Z150">
-        <v>0</v>
-      </c>
-      <c r="AA150">
-        <v>0</v>
-      </c>
-      <c r="AB150">
-        <v>0</v>
-      </c>
-      <c r="AC150">
-        <v>0</v>
-      </c>
-      <c r="AD150">
-        <v>0</v>
-      </c>
-      <c r="AE150">
-        <v>0</v>
-      </c>
-      <c r="AF150">
-        <v>0</v>
-      </c>
-      <c r="AG150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:33">
+    <row r="151" spans="1:34">
       <c r="A151" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B151" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C151" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -16960,27 +17413,30 @@
         <v>0</v>
       </c>
       <c r="AD151">
+        <v>0</v>
+      </c>
+      <c r="AE151">
         <v>0.5804826196101175</v>
       </c>
-      <c r="AE151">
+      <c r="AF151">
         <v>0.6393392094160644</v>
       </c>
-      <c r="AF151">
+      <c r="AG151">
         <v>0.4111828799316337</v>
       </c>
-      <c r="AG151">
+      <c r="AH151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:33">
+    <row r="152" spans="1:34">
       <c r="A152" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B152" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C152" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -17058,11 +17514,11 @@
         <v>0</v>
       </c>
       <c r="AC152">
+        <v>0</v>
+      </c>
+      <c r="AD152">
         <v>0.3187721369539551</v>
       </c>
-      <c r="AD152">
-        <v>0</v>
-      </c>
       <c r="AE152">
         <v>0</v>
       </c>
@@ -17070,18 +17526,21 @@
         <v>0</v>
       </c>
       <c r="AG152">
+        <v>0</v>
+      </c>
+      <c r="AH152">
         <v>0.1741666666666667</v>
       </c>
     </row>
-    <row r="153" spans="1:33">
+    <row r="153" spans="1:34">
       <c r="A153" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B153" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C153" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -17173,16 +17632,19 @@
       <c r="AG153">
         <v>0</v>
       </c>
+      <c r="AH153">
+        <v>0</v>
+      </c>
     </row>
-    <row r="154" spans="1:33">
+    <row r="154" spans="1:34">
       <c r="A154" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B154" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C154" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -17266,24 +17728,27 @@
         <v>0</v>
       </c>
       <c r="AE154">
+        <v>0</v>
+      </c>
+      <c r="AF154">
         <v>0.3460422710319105</v>
       </c>
-      <c r="AF154">
-        <v>0</v>
-      </c>
       <c r="AG154">
         <v>0</v>
       </c>
+      <c r="AH154">
+        <v>0</v>
+      </c>
     </row>
-    <row r="155" spans="1:33">
+    <row r="155" spans="1:34">
       <c r="A155" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B155" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C155" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -17375,16 +17840,19 @@
       <c r="AG155">
         <v>0</v>
       </c>
+      <c r="AH155">
+        <v>0</v>
+      </c>
     </row>
-    <row r="156" spans="1:33">
+    <row r="156" spans="1:34">
       <c r="A156" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B156" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C156" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -17465,27 +17933,30 @@
         <v>0</v>
       </c>
       <c r="AD156">
+        <v>0</v>
+      </c>
+      <c r="AE156">
         <v>0.7997101582627899</v>
       </c>
-      <c r="AE156">
+      <c r="AF156">
         <v>0.6816481573346561</v>
       </c>
-      <c r="AF156">
+      <c r="AG156">
         <v>0.4763683950286822</v>
       </c>
-      <c r="AG156">
+      <c r="AH156">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:33">
+    <row r="157" spans="1:34">
       <c r="A157" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B157" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C157" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -17563,30 +18034,33 @@
         <v>0</v>
       </c>
       <c r="AC157">
+        <v>0</v>
+      </c>
+      <c r="AD157">
         <v>1.04011426831302</v>
       </c>
-      <c r="AD157">
-        <v>0</v>
-      </c>
       <c r="AE157">
         <v>0</v>
       </c>
       <c r="AF157">
+        <v>0</v>
+      </c>
+      <c r="AG157">
         <v>0.8876163572843212</v>
       </c>
-      <c r="AG157">
+      <c r="AH157">
         <v>0.6386802052436727</v>
       </c>
     </row>
-    <row r="158" spans="1:33">
+    <row r="158" spans="1:34">
       <c r="A158" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B158" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C158" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -17664,30 +18138,33 @@
         <v>0</v>
       </c>
       <c r="AC158">
+        <v>0</v>
+      </c>
+      <c r="AD158">
         <v>0.3623800082448322</v>
       </c>
-      <c r="AD158">
-        <v>0</v>
-      </c>
       <c r="AE158">
         <v>0</v>
       </c>
       <c r="AF158">
+        <v>0</v>
+      </c>
+      <c r="AG158">
         <v>0.7384227335610088</v>
       </c>
-      <c r="AG158">
+      <c r="AH158">
         <v>0.6575287061117021</v>
       </c>
     </row>
-    <row r="159" spans="1:33">
+    <row r="159" spans="1:34">
       <c r="A159" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B159" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C159" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -17779,16 +18256,19 @@
       <c r="AG159">
         <v>0</v>
       </c>
+      <c r="AH159">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:33">
+    <row r="160" spans="1:34">
       <c r="A160" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B160" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C160" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D160">
         <v>0.4076292901223429</v>
@@ -17872,24 +18352,27 @@
         <v>0</v>
       </c>
       <c r="AE160">
+        <v>0</v>
+      </c>
+      <c r="AF160">
         <v>0.5723456612180982</v>
       </c>
-      <c r="AF160">
-        <v>0</v>
-      </c>
       <c r="AG160">
         <v>0</v>
       </c>
+      <c r="AH160">
+        <v>0</v>
+      </c>
     </row>
-    <row r="161" spans="1:33">
+    <row r="161" spans="1:34">
       <c r="A161" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B161" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C161" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D161">
         <v>0.6766832171564425</v>
@@ -17970,27 +18453,30 @@
         <v>0</v>
       </c>
       <c r="AD161">
+        <v>0</v>
+      </c>
+      <c r="AE161">
         <v>1.050926960017869</v>
       </c>
-      <c r="AE161">
+      <c r="AF161">
         <v>0.3680410357594481</v>
       </c>
-      <c r="AF161">
+      <c r="AG161">
         <v>0.4479489010636221</v>
       </c>
-      <c r="AG161">
+      <c r="AH161">
         <v>0.4077408492120895</v>
       </c>
     </row>
-    <row r="162" spans="1:33">
+    <row r="162" spans="1:34">
       <c r="A162" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B162" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C162" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D162">
         <v>0.416759187743433</v>
@@ -18071,27 +18557,30 @@
         <v>0</v>
       </c>
       <c r="AD162">
+        <v>0</v>
+      </c>
+      <c r="AE162">
         <v>0.5296477927606893</v>
       </c>
-      <c r="AE162">
+      <c r="AF162">
         <v>0.6436022727272728</v>
       </c>
-      <c r="AF162">
+      <c r="AG162">
         <v>0.5832946635730858</v>
       </c>
-      <c r="AG162">
+      <c r="AH162">
         <v>0.5324261455495132</v>
       </c>
     </row>
-    <row r="163" spans="1:33">
+    <row r="163" spans="1:34">
       <c r="A163" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B163" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C163" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -18183,16 +18672,19 @@
       <c r="AG163">
         <v>0</v>
       </c>
+      <c r="AH163">
+        <v>0</v>
+      </c>
     </row>
-    <row r="164" spans="1:33">
+    <row r="164" spans="1:34">
       <c r="A164" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B164" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C164" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D164">
         <v>0.5369886173050153</v>
@@ -18284,16 +18776,19 @@
       <c r="AG164">
         <v>0</v>
       </c>
+      <c r="AH164">
+        <v>0</v>
+      </c>
     </row>
-    <row r="165" spans="1:33">
+    <row r="165" spans="1:34">
       <c r="A165" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B165" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C165" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D165">
         <v>0.6788815244407623</v>
@@ -18374,27 +18869,30 @@
         <v>0</v>
       </c>
       <c r="AD165">
+        <v>0</v>
+      </c>
+      <c r="AE165">
         <v>0.4404039955604884</v>
       </c>
-      <c r="AE165">
+      <c r="AF165">
         <v>0.5739849432180681</v>
       </c>
-      <c r="AF165">
+      <c r="AG165">
         <v>0.4170063025210085</v>
       </c>
-      <c r="AG165">
+      <c r="AH165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:33">
+    <row r="166" spans="1:34">
       <c r="A166" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B166" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C166" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -18472,30 +18970,33 @@
         <v>0.5253703322269232</v>
       </c>
       <c r="AC166">
+        <v>0</v>
+      </c>
+      <c r="AD166">
         <v>0.8254226030338137</v>
       </c>
-      <c r="AD166">
+      <c r="AE166">
         <v>0.5401776410019912</v>
       </c>
-      <c r="AE166">
-        <v>0</v>
-      </c>
       <c r="AF166">
         <v>0</v>
       </c>
       <c r="AG166">
         <v>0</v>
       </c>
+      <c r="AH166">
+        <v>0</v>
+      </c>
     </row>
-    <row r="167" spans="1:33">
+    <row r="167" spans="1:34">
       <c r="A167" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B167" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C167" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D167">
         <v>0.6651787101787101</v>
@@ -18576,27 +19077,30 @@
         <v>0</v>
       </c>
       <c r="AD167">
+        <v>0</v>
+      </c>
+      <c r="AE167">
         <v>0.5663805081979425</v>
       </c>
-      <c r="AE167">
+      <c r="AF167">
         <v>0.9479640857757202</v>
       </c>
-      <c r="AF167">
+      <c r="AG167">
         <v>0.5801251380198749</v>
       </c>
-      <c r="AG167">
+      <c r="AH167">
         <v>0.5906317087719921</v>
       </c>
     </row>
-    <row r="168" spans="1:33">
+    <row r="168" spans="1:34">
       <c r="A168" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B168" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C168" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D168">
         <v>0.481906347564867</v>
@@ -18674,30 +19178,33 @@
         <v>0</v>
       </c>
       <c r="AC168">
+        <v>0</v>
+      </c>
+      <c r="AD168">
         <v>0.6887409223903032</v>
       </c>
-      <c r="AD168">
+      <c r="AE168">
         <v>0.5159577264840423</v>
       </c>
-      <c r="AE168">
+      <c r="AF168">
         <v>0.4162872255427105</v>
       </c>
-      <c r="AF168">
+      <c r="AG168">
         <v>0.6603050183181393</v>
       </c>
-      <c r="AG168">
+      <c r="AH168">
         <v>0.6181411081178884</v>
       </c>
     </row>
-    <row r="169" spans="1:33">
+    <row r="169" spans="1:34">
       <c r="A169" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B169" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C169" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -18778,27 +19285,30 @@
         <v>0</v>
       </c>
       <c r="AD169">
+        <v>0</v>
+      </c>
+      <c r="AE169">
         <v>0.361546499477534</v>
       </c>
-      <c r="AE169">
+      <c r="AF169">
         <v>0.6340259194775457</v>
       </c>
-      <c r="AF169">
+      <c r="AG169">
         <v>0.9028555431131019</v>
       </c>
-      <c r="AG169">
+      <c r="AH169">
         <v>0.5890941949907744</v>
       </c>
     </row>
-    <row r="170" spans="1:33">
+    <row r="170" spans="1:34">
       <c r="A170" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B170" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C170" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D170">
         <v>0.368130261477138</v>
@@ -18876,30 +19386,33 @@
         <v>1.13060244568266</v>
       </c>
       <c r="AC170">
+        <v>0</v>
+      </c>
+      <c r="AD170">
         <v>0.6963857257112389</v>
       </c>
-      <c r="AD170">
+      <c r="AE170">
         <v>0.9653771666005372</v>
       </c>
-      <c r="AE170">
+      <c r="AF170">
         <v>0.7931135203862476</v>
       </c>
-      <c r="AF170">
+      <c r="AG170">
         <v>0.9675188114841371</v>
       </c>
-      <c r="AG170">
+      <c r="AH170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:33">
+    <row r="171" spans="1:34">
       <c r="A171" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B171" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C171" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D171">
         <v>0.5368973132131027</v>
@@ -18980,27 +19493,30 @@
         <v>0</v>
       </c>
       <c r="AD171">
+        <v>0</v>
+      </c>
+      <c r="AE171">
         <v>0.6964131313976516</v>
       </c>
-      <c r="AE171">
-        <v>0</v>
-      </c>
       <c r="AF171">
+        <v>0</v>
+      </c>
+      <c r="AG171">
         <v>0.6596129281530568</v>
       </c>
-      <c r="AG171">
+      <c r="AH171">
         <v>0.4042025566398509</v>
       </c>
     </row>
-    <row r="172" spans="1:33">
+    <row r="172" spans="1:34">
       <c r="A172" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B172" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C172" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D172">
         <v>0.3880935818108592</v>
@@ -19081,27 +19597,30 @@
         <v>0</v>
       </c>
       <c r="AD172">
+        <v>0</v>
+      </c>
+      <c r="AE172">
         <v>0.4089728149878526</v>
       </c>
-      <c r="AE172">
-        <v>0</v>
-      </c>
       <c r="AF172">
         <v>0</v>
       </c>
       <c r="AG172">
         <v>0</v>
       </c>
+      <c r="AH172">
+        <v>0</v>
+      </c>
     </row>
-    <row r="173" spans="1:33">
+    <row r="173" spans="1:34">
       <c r="A173" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B173" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C173" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D173">
         <v>2.138708956890775</v>
@@ -19182,27 +19701,30 @@
         <v>0</v>
       </c>
       <c r="AD173">
+        <v>0</v>
+      </c>
+      <c r="AE173">
         <v>0.2927933588610121</v>
       </c>
-      <c r="AE173">
+      <c r="AF173">
         <v>0.4321628703890345</v>
       </c>
-      <c r="AF173">
-        <v>0</v>
-      </c>
       <c r="AG173">
+        <v>0</v>
+      </c>
+      <c r="AH173">
         <v>0.2108660570199032</v>
       </c>
     </row>
-    <row r="174" spans="1:33">
+    <row r="174" spans="1:34">
       <c r="A174" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B174" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C174" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D174">
         <v>0.444504545871434</v>
@@ -19280,30 +19802,33 @@
         <v>0</v>
       </c>
       <c r="AC174">
+        <v>0</v>
+      </c>
+      <c r="AD174">
         <v>0.4298301398493562</v>
       </c>
-      <c r="AD174">
+      <c r="AE174">
         <v>0.4545818234189359</v>
       </c>
-      <c r="AE174">
+      <c r="AF174">
         <v>0.6091854191340967</v>
       </c>
-      <c r="AF174">
-        <v>0</v>
-      </c>
       <c r="AG174">
+        <v>0</v>
+      </c>
+      <c r="AH174">
         <v>0.6826494126265293</v>
       </c>
     </row>
-    <row r="175" spans="1:33">
+    <row r="175" spans="1:34">
       <c r="A175" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B175" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C175" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -19390,21 +19915,24 @@
         <v>0</v>
       </c>
       <c r="AF175">
+        <v>0</v>
+      </c>
+      <c r="AG175">
         <v>0.5648604107026416</v>
       </c>
-      <c r="AG175">
+      <c r="AH175">
         <v>0.4521920980969673</v>
       </c>
     </row>
-    <row r="176" spans="1:33">
+    <row r="176" spans="1:34">
       <c r="A176" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B176" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C176" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D176">
         <v>0.5595803974900977</v>
@@ -19488,24 +20016,27 @@
         <v>0</v>
       </c>
       <c r="AE176">
+        <v>0</v>
+      </c>
+      <c r="AF176">
         <v>0.2873127279381728</v>
       </c>
-      <c r="AF176">
+      <c r="AG176">
         <v>0.6533461909353907</v>
       </c>
-      <c r="AG176">
+      <c r="AH176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:33">
+    <row r="177" spans="1:34">
       <c r="A177" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B177" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C177" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -19583,11 +20114,11 @@
         <v>0</v>
       </c>
       <c r="AC177">
+        <v>0</v>
+      </c>
+      <c r="AD177">
         <v>0.4979635748866518</v>
       </c>
-      <c r="AD177">
-        <v>0</v>
-      </c>
       <c r="AE177">
         <v>0</v>
       </c>
@@ -19597,16 +20128,19 @@
       <c r="AG177">
         <v>0</v>
       </c>
+      <c r="AH177">
+        <v>0</v>
+      </c>
     </row>
-    <row r="178" spans="1:33">
+    <row r="178" spans="1:34">
       <c r="A178" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B178" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C178" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -19696,18 +20230,21 @@
         <v>0</v>
       </c>
       <c r="AG178">
+        <v>0</v>
+      </c>
+      <c r="AH178">
         <v>0.8223684210526315</v>
       </c>
     </row>
-    <row r="179" spans="1:33">
+    <row r="179" spans="1:34">
       <c r="A179" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B179" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C179" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -19794,21 +20331,24 @@
         <v>0</v>
       </c>
       <c r="AF179">
+        <v>0</v>
+      </c>
+      <c r="AG179">
         <v>0.6088500525640654</v>
       </c>
-      <c r="AG179">
+      <c r="AH179">
         <v>0.5308659645484787</v>
       </c>
     </row>
-    <row r="180" spans="1:33">
+    <row r="180" spans="1:34">
       <c r="A180" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B180" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C180" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D180">
         <v>0.5695052610940461</v>
@@ -19886,30 +20426,33 @@
         <v>0</v>
       </c>
       <c r="AC180">
+        <v>0</v>
+      </c>
+      <c r="AD180">
         <v>0.7823843061756849</v>
       </c>
-      <c r="AD180">
+      <c r="AE180">
         <v>0.8807205178722206</v>
       </c>
-      <c r="AE180">
+      <c r="AF180">
         <v>0.8492952562633808</v>
       </c>
-      <c r="AF180">
+      <c r="AG180">
         <v>0.798420111721067</v>
       </c>
-      <c r="AG180">
+      <c r="AH180">
         <v>0.1573426573426573</v>
       </c>
     </row>
-    <row r="181" spans="1:33">
+    <row r="181" spans="1:34">
       <c r="A181" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B181" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C181" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D181">
         <v>0.9068329376495786</v>
@@ -19990,27 +20533,30 @@
         <v>0</v>
       </c>
       <c r="AD181">
+        <v>0</v>
+      </c>
+      <c r="AE181">
         <v>0.5860638703931464</v>
       </c>
-      <c r="AE181">
+      <c r="AF181">
         <v>0.4360720712512243</v>
       </c>
-      <c r="AF181">
+      <c r="AG181">
         <v>0.4563250780299685</v>
       </c>
-      <c r="AG181">
+      <c r="AH181">
         <v>0.5526040873082172</v>
       </c>
     </row>
-    <row r="182" spans="1:33">
+    <row r="182" spans="1:34">
       <c r="A182" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B182" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C182" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D182">
         <v>0.1763085399449036</v>
@@ -20091,27 +20637,30 @@
         <v>0</v>
       </c>
       <c r="AD182">
+        <v>0</v>
+      </c>
+      <c r="AE182">
         <v>0.2527953330092367</v>
       </c>
-      <c r="AE182">
-        <v>0</v>
-      </c>
       <c r="AF182">
         <v>0</v>
       </c>
       <c r="AG182">
+        <v>0</v>
+      </c>
+      <c r="AH182">
         <v>0.3143321325139506</v>
       </c>
     </row>
-    <row r="183" spans="1:33">
+    <row r="183" spans="1:34">
       <c r="A183" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B183" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C183" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D183">
         <v>0.4886593433770945</v>
@@ -20203,16 +20752,19 @@
       <c r="AG183">
         <v>0</v>
       </c>
+      <c r="AH183">
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:33">
+    <row r="184" spans="1:34">
       <c r="A184" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B184" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C184" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -20304,16 +20856,19 @@
       <c r="AG184">
         <v>0</v>
       </c>
+      <c r="AH184">
+        <v>0</v>
+      </c>
     </row>
-    <row r="185" spans="1:33">
+    <row r="185" spans="1:34">
       <c r="A185" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B185" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C185" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -20403,18 +20958,21 @@
         <v>0</v>
       </c>
       <c r="AG185">
+        <v>0</v>
+      </c>
+      <c r="AH185">
         <v>0.05892075838599903</v>
       </c>
     </row>
-    <row r="186" spans="1:33">
+    <row r="186" spans="1:34">
       <c r="A186" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B186" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C186" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D186">
         <v>0.9626235833132386</v>
@@ -20495,27 +21053,30 @@
         <v>0</v>
       </c>
       <c r="AD186">
+        <v>0</v>
+      </c>
+      <c r="AE186">
         <v>0.996210465670693</v>
       </c>
-      <c r="AE186">
+      <c r="AF186">
         <v>0.3325751689388052</v>
       </c>
-      <c r="AF186">
+      <c r="AG186">
         <v>0.565062705889152</v>
       </c>
-      <c r="AG186">
+      <c r="AH186">
         <v>0.6413882100985695</v>
       </c>
     </row>
-    <row r="187" spans="1:33">
+    <row r="187" spans="1:34">
       <c r="A187" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B187" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C187" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D187">
         <v>1.343618957774176</v>
@@ -20599,24 +21160,27 @@
         <v>0</v>
       </c>
       <c r="AE187">
+        <v>0</v>
+      </c>
+      <c r="AF187">
         <v>1.067833876221499</v>
       </c>
-      <c r="AF187">
+      <c r="AG187">
         <v>0.8781107491856678</v>
       </c>
-      <c r="AG187">
+      <c r="AH187">
         <v>0.592227602905569</v>
       </c>
     </row>
-    <row r="188" spans="1:33">
+    <row r="188" spans="1:34">
       <c r="A188" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B188" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C188" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D188">
         <v>0.2551423576423577</v>
@@ -20694,30 +21258,33 @@
         <v>0.2098214285714286</v>
       </c>
       <c r="AC188">
+        <v>0</v>
+      </c>
+      <c r="AD188">
         <v>0.1643835616438356</v>
       </c>
-      <c r="AD188">
+      <c r="AE188">
         <v>0.04419263456090651</v>
       </c>
-      <c r="AE188">
+      <c r="AF188">
         <v>0.05381165919282511</v>
       </c>
-      <c r="AF188">
-        <v>0</v>
-      </c>
       <c r="AG188">
         <v>0</v>
       </c>
+      <c r="AH188">
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:33">
+    <row r="189" spans="1:34">
       <c r="A189" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B189" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C189" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -20809,16 +21376,19 @@
       <c r="AG189">
         <v>0</v>
       </c>
+      <c r="AH189">
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:33">
+    <row r="190" spans="1:34">
       <c r="A190" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B190" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C190" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D190">
         <v>0.5421558848674836</v>
@@ -20899,27 +21469,30 @@
         <v>0</v>
       </c>
       <c r="AD190">
+        <v>0</v>
+      </c>
+      <c r="AE190">
         <v>0.7036320941721814</v>
       </c>
-      <c r="AE190">
+      <c r="AF190">
         <v>0.6916526413625059</v>
       </c>
-      <c r="AF190">
-        <v>0</v>
-      </c>
       <c r="AG190">
+        <v>0</v>
+      </c>
+      <c r="AH190">
         <v>0.718266253869969</v>
       </c>
     </row>
-    <row r="191" spans="1:33">
+    <row r="191" spans="1:34">
       <c r="A191" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B191" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C191" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -21000,27 +21573,30 @@
         <v>0</v>
       </c>
       <c r="AD191">
+        <v>0</v>
+      </c>
+      <c r="AE191">
         <v>0.03673094582185491</v>
       </c>
-      <c r="AE191">
-        <v>0</v>
-      </c>
       <c r="AF191">
         <v>0</v>
       </c>
       <c r="AG191">
         <v>0</v>
       </c>
+      <c r="AH191">
+        <v>0</v>
+      </c>
     </row>
-    <row r="192" spans="1:33">
+    <row r="192" spans="1:34">
       <c r="A192" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B192" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C192" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -21101,27 +21677,30 @@
         <v>0</v>
       </c>
       <c r="AD192">
+        <v>0</v>
+      </c>
+      <c r="AE192">
         <v>0.5796135909393736</v>
       </c>
-      <c r="AE192">
+      <c r="AF192">
         <v>0.7636363636363636</v>
       </c>
-      <c r="AF192">
-        <v>0</v>
-      </c>
       <c r="AG192">
+        <v>0</v>
+      </c>
+      <c r="AH192">
         <v>0.8776470588235294</v>
       </c>
     </row>
-    <row r="193" spans="1:33">
+    <row r="193" spans="1:34">
       <c r="A193" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B193" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C193" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -21202,27 +21781,30 @@
         <v>0</v>
       </c>
       <c r="AD193">
+        <v>0</v>
+      </c>
+      <c r="AE193">
         <v>0.8270412642669008</v>
       </c>
-      <c r="AE193">
-        <v>0</v>
-      </c>
       <c r="AF193">
+        <v>0</v>
+      </c>
+      <c r="AG193">
         <v>0.6704853369919397</v>
       </c>
-      <c r="AG193">
+      <c r="AH193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:33">
+    <row r="194" spans="1:34">
       <c r="A194" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B194" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C194" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -21314,16 +21896,19 @@
       <c r="AG194">
         <v>0</v>
       </c>
+      <c r="AH194">
+        <v>0</v>
+      </c>
     </row>
-    <row r="195" spans="1:33">
+    <row r="195" spans="1:34">
       <c r="A195" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B195" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C195" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -21404,27 +21989,30 @@
         <v>0</v>
       </c>
       <c r="AD195">
+        <v>0</v>
+      </c>
+      <c r="AE195">
         <v>0.1845598969514813</v>
       </c>
-      <c r="AE195">
+      <c r="AF195">
         <v>1.013178733031674</v>
       </c>
-      <c r="AF195">
+      <c r="AG195">
         <v>0.3203441699366465</v>
       </c>
-      <c r="AG195">
+      <c r="AH195">
         <v>0.5404204717967591</v>
       </c>
     </row>
-    <row r="196" spans="1:33">
+    <row r="196" spans="1:34">
       <c r="A196" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B196" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C196" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D196">
         <v>0.8525622983827317</v>
@@ -21516,16 +22104,19 @@
       <c r="AG196">
         <v>0</v>
       </c>
+      <c r="AH196">
+        <v>0</v>
+      </c>
     </row>
-    <row r="197" spans="1:33">
+    <row r="197" spans="1:34">
       <c r="A197" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B197" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C197" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D197">
         <v>0.8523844576476155</v>
@@ -21617,16 +22208,19 @@
       <c r="AG197">
         <v>0</v>
       </c>
+      <c r="AH197">
+        <v>0</v>
+      </c>
     </row>
-    <row r="198" spans="1:33">
+    <row r="198" spans="1:34">
       <c r="A198" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B198" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C198" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D198">
         <v>0.7260943518253458</v>
@@ -21704,30 +22298,33 @@
         <v>0.7313243270965446</v>
       </c>
       <c r="AC198">
+        <v>0</v>
+      </c>
+      <c r="AD198">
         <v>0.8980797367052261</v>
       </c>
-      <c r="AD198">
+      <c r="AE198">
         <v>0.3782942264347223</v>
       </c>
-      <c r="AE198">
-        <v>0</v>
-      </c>
       <c r="AF198">
+        <v>0</v>
+      </c>
+      <c r="AG198">
         <v>0.9611821549111582</v>
       </c>
-      <c r="AG198">
+      <c r="AH198">
         <v>0.7616879546704107</v>
       </c>
     </row>
-    <row r="199" spans="1:33">
+    <row r="199" spans="1:34">
       <c r="A199" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B199" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C199" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -21808,27 +22405,30 @@
         <v>0</v>
       </c>
       <c r="AD199">
+        <v>0</v>
+      </c>
+      <c r="AE199">
         <v>0.7362786935542355</v>
       </c>
-      <c r="AE199">
+      <c r="AF199">
         <v>0.257985257985258</v>
       </c>
-      <c r="AF199">
-        <v>0</v>
-      </c>
       <c r="AG199">
+        <v>0</v>
+      </c>
+      <c r="AH199">
         <v>0.8072672281279094</v>
       </c>
     </row>
-    <row r="200" spans="1:33">
+    <row r="200" spans="1:34">
       <c r="A200" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B200" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C200" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D200">
         <v>0.7327449366090272</v>
@@ -21920,16 +22520,19 @@
       <c r="AG200">
         <v>0</v>
       </c>
+      <c r="AH200">
+        <v>0</v>
+      </c>
     </row>
-    <row r="201" spans="1:33">
+    <row r="201" spans="1:34">
       <c r="A201" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B201" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C201" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -22010,27 +22613,30 @@
         <v>0</v>
       </c>
       <c r="AD201">
+        <v>0</v>
+      </c>
+      <c r="AE201">
         <v>0.6876509544215037</v>
       </c>
-      <c r="AE201">
+      <c r="AF201">
         <v>0.9140710028504794</v>
       </c>
-      <c r="AF201">
+      <c r="AG201">
         <v>1.002576439546795</v>
       </c>
-      <c r="AG201">
+      <c r="AH201">
         <v>0.9281802698807807</v>
       </c>
     </row>
-    <row r="202" spans="1:33">
+    <row r="202" spans="1:34">
       <c r="A202" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B202" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C202" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D202">
         <v>0.8587422779443183</v>
@@ -22108,30 +22714,33 @@
         <v>0</v>
       </c>
       <c r="AC202">
+        <v>0</v>
+      </c>
+      <c r="AD202">
         <v>0.3892561983471074</v>
       </c>
-      <c r="AD202">
+      <c r="AE202">
         <v>0.5807810727596825</v>
       </c>
-      <c r="AE202">
-        <v>0</v>
-      </c>
       <c r="AF202">
+        <v>0</v>
+      </c>
+      <c r="AG202">
         <v>0.5913329095147277</v>
       </c>
-      <c r="AG202">
+      <c r="AH202">
         <v>0.6164026248592844</v>
       </c>
     </row>
-    <row r="203" spans="1:33">
+    <row r="203" spans="1:34">
       <c r="A203" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B203" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C203" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D203">
         <v>0.5713997232713811</v>
@@ -22223,16 +22832,19 @@
       <c r="AG203">
         <v>0</v>
       </c>
+      <c r="AH203">
+        <v>0</v>
+      </c>
     </row>
-    <row r="204" spans="1:33">
+    <row r="204" spans="1:34">
       <c r="A204" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B204" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C204" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -22324,16 +22936,19 @@
       <c r="AG204">
         <v>0</v>
       </c>
+      <c r="AH204">
+        <v>0</v>
+      </c>
     </row>
-    <row r="205" spans="1:33">
+    <row r="205" spans="1:34">
       <c r="A205" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B205" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C205" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -22417,24 +23032,27 @@
         <v>0</v>
       </c>
       <c r="AE205">
+        <v>0</v>
+      </c>
+      <c r="AF205">
         <v>0.3272727272727273</v>
       </c>
-      <c r="AF205">
-        <v>0</v>
-      </c>
       <c r="AG205">
         <v>0</v>
       </c>
+      <c r="AH205">
+        <v>0</v>
+      </c>
     </row>
-    <row r="206" spans="1:33">
+    <row r="206" spans="1:34">
       <c r="A206" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B206" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C206" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -22526,16 +23144,19 @@
       <c r="AG206">
         <v>0</v>
       </c>
+      <c r="AH206">
+        <v>0</v>
+      </c>
     </row>
-    <row r="207" spans="1:33">
+    <row r="207" spans="1:34">
       <c r="A207" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B207" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C207" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D207">
         <v>0.4307058962929409</v>
@@ -22625,6 +23246,9 @@
         <v>0</v>
       </c>
       <c r="AG207">
+        <v>0</v>
+      </c>
+      <c r="AH207">
         <v>0</v>
       </c>
     </row>
